--- a/testData/Notification/WF3_Send_Notify_ETR_M_Test.xlsx
+++ b/testData/Notification/WF3_Send_Notify_ETR_M_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="41">
   <si>
     <t>ModuleName</t>
   </si>

--- a/testData/Notification/WF3_Send_Notify_ETR_M_Test.xlsx
+++ b/testData/Notification/WF3_Send_Notify_ETR_M_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
   <si>
     <t>ModuleName</t>
   </si>
@@ -102,9 +102,6 @@
     <t>NotifyTriggerETRM</t>
   </si>
   <si>
-    <t>Welcome to Notification test automation for ETRM.</t>
-  </si>
-  <si>
     <t>SummaryAdd@gmail.com</t>
   </si>
   <si>
@@ -135,16 +132,37 @@
     <t>addnewETRM@gmail.com</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>93561</t>
-  </si>
-  <si>
-    <t>93572</t>
-  </si>
-  <si>
-    <t>93576</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>123415</t>
+  </si>
+  <si>
+    <t>123416</t>
+  </si>
+  <si>
+    <t>123417</t>
+  </si>
+  <si>
+    <t>Notify ETRM</t>
+  </si>
+  <si>
+    <t>123424</t>
+  </si>
+  <si>
+    <t>123425</t>
+  </si>
+  <si>
+    <t>123426</t>
+  </si>
+  <si>
+    <t>123470</t>
+  </si>
+  <si>
+    <t>123471</t>
+  </si>
+  <si>
+    <t>123472</t>
   </si>
 </sst>
 </file>
@@ -490,62 +508,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="AN2" workbookViewId="0">
+      <selection activeCell="AZ11" sqref="AZ11:AZ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="29.90625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="26.6328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="29.85546875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="26.5703125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.5703125"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="14.0"/>
-    <col min="7" max="8" style="1" width="8.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="28.6328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="16.453125"/>
-    <col min="12" max="13" style="1" width="8.7265625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
-    <col min="15" max="15" style="1" width="8.7265625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="15.1796875"/>
-    <col min="17" max="18" bestFit="true" customWidth="true" style="1" width="13.6328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.453125"/>
-    <col min="20" max="20" style="1" width="8.7265625"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="7" max="8" style="1" width="8.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="28.5703125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="16.42578125"/>
+    <col min="12" max="13" style="1" width="8.7109375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="10.140625"/>
+    <col min="15" max="15" style="1" width="8.7109375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="15.140625"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="1" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="10.42578125"/>
+    <col min="20" max="20" style="1" width="8.7109375"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="8.28515625"/>
     <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="12.7265625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="15.7265625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.7265625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="20.453125"/>
-    <col min="32" max="32" customWidth="true" style="1" width="20.453125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="12.7109375"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="15.7109375"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.7109375"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="20.42578125"/>
+    <col min="32" max="32" customWidth="true" style="1" width="20.42578125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="18.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="14.85546875"/>
     <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="14.0"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="10.1796875"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" style="1" width="17.81640625"/>
-    <col min="41" max="42" bestFit="true" customWidth="true" style="1" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="10.140625"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="1" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="1" width="17.85546875"/>
+    <col min="41" max="42" bestFit="true" customWidth="true" style="1" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.42578125"/>
     <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="18.0"/>
     <col min="45" max="45" customWidth="true" style="1" width="18.0"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="1" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="51" max="51" customWidth="true" style="1" width="10.36328125"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
-    <col min="53" max="16384" style="1" width="8.7265625"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="1" width="10.28515625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="1" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="10.85546875"/>
+    <col min="51" max="51" customWidth="true" style="1" width="10.42578125"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="18.28515625"/>
+    <col min="53" max="16384" style="1" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,7 +613,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -612,7 +630,7 @@
         <v>44444444444</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -630,7 +648,7 @@
         <v>25</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="4"/>
@@ -638,7 +656,7 @@
       <c r="Z2" s="4"/>
       <c r="AD2" s="3"/>
       <c r="AK2" t="s" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>20</v>
@@ -651,7 +669,7 @@
       <c r="AW2" s="3"/>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -666,30 +684,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AZ7" sqref="AZ7:AZ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="15.6328125"/>
-    <col min="3" max="3" style="1" width="8.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.42578125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="15.5703125"/>
+    <col min="3" max="3" style="1" width="8.7109375"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.54296875"/>
-    <col min="6" max="8" style="1" width="8.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.08984375"/>
-    <col min="12" max="42" style="1" width="8.7265625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="45" max="51" style="1" width="8.7265625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
-    <col min="53" max="16384" style="1" width="8.7265625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="11.5703125"/>
+    <col min="6" max="8" style="1" width="8.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.140625"/>
+    <col min="12" max="42" style="1" width="8.7109375"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="10.85546875"/>
+    <col min="45" max="51" style="1" width="8.7109375"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="18.28515625"/>
+    <col min="53" max="16384" style="1" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -750,19 +768,19 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>8</v>
@@ -773,6 +791,9 @@
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L2" t="s" s="1">
+        <v>45</v>
+      </c>
       <c r="AQ2" s="1" t="s">
         <v>20</v>
       </c>
@@ -780,7 +801,7 @@
         <v>2233445566</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -795,33 +816,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7:AX10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.36328125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" style="1" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.0"/>
     <col min="5" max="5" customWidth="true" style="1" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.7265625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="9.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.90625"/>
-    <col min="14" max="42" style="1" width="8.7265625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="45" max="51" style="1" width="8.7265625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="16.7265625"/>
-    <col min="53" max="16384" style="1" width="8.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="9.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="8.28515625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.85546875"/>
+    <col min="14" max="42" style="1" width="8.7109375"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="10.85546875"/>
+    <col min="45" max="51" style="1" width="8.7109375"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="16.7109375"/>
+    <col min="53" max="16384" style="1" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -888,10 +909,10 @@
         <v>2222222222</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="3">
         <v>666666666</v>
@@ -905,6 +926,9 @@
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L2" t="s" s="1">
+        <v>46</v>
+      </c>
       <c r="AQ2" s="1" t="s">
         <v>20</v>
       </c>
@@ -912,7 +936,7 @@
         <v>22</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -927,32 +951,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AV5" sqref="AV5:AV8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.36328125"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" style="1" width="18.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="14.42578125"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.0"/>
     <col min="5" max="5" customWidth="true" style="1" width="13.0"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.7265625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="9.1796875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.81640625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.90625"/>
-    <col min="14" max="42" style="1" width="8.7265625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
-    <col min="44" max="51" style="1" width="8.7265625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="16.7265625"/>
-    <col min="53" max="16384" style="1" width="8.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.7109375"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="9.140625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.85546875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.140625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="8.28515625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.85546875"/>
+    <col min="14" max="42" style="1" width="8.7109375"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="18.42578125"/>
+    <col min="44" max="51" style="1" width="8.7109375"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="16.7109375"/>
+    <col min="53" max="16384" style="1" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1026,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1019,10 +1043,10 @@
         <v>1111111111</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H2" s="3">
         <v>7777777777</v>
@@ -1036,6 +1060,9 @@
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L2" t="s" s="1">
+        <v>46</v>
+      </c>
       <c r="AQ2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1043,7 +1070,7 @@
         <v>22</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/testData/Notification/WF3_Send_Notify_ETR_M_Test.xlsx
+++ b/testData/Notification/WF3_Send_Notify_ETR_M_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="48">
   <si>
     <t>ModuleName</t>
   </si>
@@ -135,27 +135,9 @@
     <t>4</t>
   </si>
   <si>
-    <t>123415</t>
-  </si>
-  <si>
-    <t>123416</t>
-  </si>
-  <si>
-    <t>123417</t>
-  </si>
-  <si>
     <t>Notify ETRM</t>
   </si>
   <si>
-    <t>123424</t>
-  </si>
-  <si>
-    <t>123425</t>
-  </si>
-  <si>
-    <t>123426</t>
-  </si>
-  <si>
     <t>123470</t>
   </si>
   <si>
@@ -163,6 +145,27 @@
   </si>
   <si>
     <t>123472</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>136257</t>
+  </si>
+  <si>
+    <t>136258</t>
+  </si>
+  <si>
+    <t>136259</t>
+  </si>
+  <si>
+    <t>136335</t>
+  </si>
+  <si>
+    <t>136336</t>
+  </si>
+  <si>
+    <t>136337</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
         <v>25</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="5"/>
       <c r="W2" s="4"/>
@@ -656,7 +659,7 @@
       <c r="Z2" s="4"/>
       <c r="AD2" s="3"/>
       <c r="AK2" t="s" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>20</v>
@@ -669,7 +672,7 @@
       <c r="AW2" s="3"/>
       <c r="AY2" s="4"/>
       <c r="AZ2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +795,7 @@
         <v>25</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>20</v>
@@ -801,7 +804,7 @@
         <v>2233445566</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -927,7 +930,7 @@
         <v>25</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>20</v>
@@ -936,7 +939,7 @@
         <v>22</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AV5" sqref="AV5:AV8"/>
     </sheetView>
   </sheetViews>
@@ -964,7 +967,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="22.7109375"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="9.140625"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="11.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="31.140625"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="14.85546875"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="20.140625"/>
     <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="8.28515625"/>
@@ -1061,7 +1064,7 @@
         <v>25</v>
       </c>
       <c r="L2" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>20</v>
@@ -1070,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
